--- a/biology/Botanique/Diplotaxis/Diplotaxis.xlsx
+++ b/biology/Botanique/Diplotaxis/Diplotaxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplotaxis est un genre de plantes de la famille des Brassicaceae (les Crucifères). Ce sont des plantes herbacées à feuilles généralement pennatilobées, ayant comme toutes les crucifères des fleurs à quatre sépales, quatre pétales et six étamines. Les fleurs sont le plus souvent jaunes (mais Diplotaxis erucoides a des fleurs blanches). Les fruits sont des siliques déhiscentes, minces, terminées par un court bec, avec des valves à nervure médiane marquée. Les graines sont disposées sur deux rangs dans le fruit, d'où le nom grec de Diplotaxis (= double ordre). Ces plantes sont parfois appelées en français diplotaxes. La particularité des Diplotaxis est de présenter un gout odorant de poulet.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces françaises :
 Diplotaxis assurgens (Delile) Thell.
@@ -521,7 +535,7 @@
 Diplotaxis tenuifolia (L.) DC. (Roquette sauvage)
 Diplotaxis tenuisiliqua Delile
 Diplotaxis viminea (L.) DC.
-Selon Catalogue of Life                                  (17 janvier 2018)[1] :
+Selon Catalogue of Life                                  (17 janvier 2018) :
 Diplotaxis acris (Forssk.) Boiss.
 Diplotaxis antoniensis Rustan
 Diplotaxis assurgens (Delile) Gren.
@@ -554,12 +568,12 @@
 Diplotaxis villosa Boulos &amp; Jallad
 Diplotaxis viminea (L.) DC.
 Diplotaxis virgata (Cav.) DC.
-Selon ITIS      (7 avril 2015)[2] :
+Selon ITIS      (7 avril 2015) :
 Diplotaxis erucoides (L.) DC.
 Diplotaxis muralis (L.) DC.
 Diplotaxis siifolia Kuntze
 Diplotaxis tenuifolia (L.) DC.
-Selon NCBI  (23 mai 2012)[3] :
+Selon NCBI  (23 mai 2012) :
 Diplotaxis acris
 Diplotaxis antoniensis
 Diplotaxis assurgens
